--- a/UCProject/src/data/BuildExcel.xlsx
+++ b/UCProject/src/data/BuildExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="134">
   <si>
     <t>STT</t>
   </si>
@@ -119,64 +119,304 @@
     <t>Process</t>
   </si>
   <si>
-    <t>@1</t>
-  </si>
-  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>@2</t>
-  </si>
-  <si>
-    <t>@3</t>
-  </si>
-  <si>
-    <t>@4</t>
-  </si>
-  <si>
-    <t>@5</t>
-  </si>
-  <si>
-    <t>@6</t>
-  </si>
-  <si>
-    <t>@7</t>
-  </si>
-  <si>
-    <t>@8</t>
-  </si>
-  <si>
-    <t>@9</t>
-  </si>
-  <si>
-    <t>@10</t>
-  </si>
-  <si>
-    <t>@11</t>
-  </si>
-  <si>
-    <t>@12</t>
-  </si>
-  <si>
-    <t>@13</t>
-  </si>
-  <si>
-    <t>@14</t>
-  </si>
-  <si>
-    <t>@15</t>
-  </si>
-  <si>
-    <t>@16</t>
-  </si>
-  <si>
-    <t>@17</t>
-  </si>
-  <si>
-    <t>@18</t>
-  </si>
-  <si>
-    <t>@19</t>
+    <t>Mr0001</t>
+  </si>
+  <si>
+    <t>Mr0002</t>
+  </si>
+  <si>
+    <t>Mr0003</t>
+  </si>
+  <si>
+    <t>Mr0004</t>
+  </si>
+  <si>
+    <t>Mr0005</t>
+  </si>
+  <si>
+    <t>Mr0006</t>
+  </si>
+  <si>
+    <t>Mr0007</t>
+  </si>
+  <si>
+    <t>Mr0008</t>
+  </si>
+  <si>
+    <t>Mr0009</t>
+  </si>
+  <si>
+    <t>Mr0010</t>
+  </si>
+  <si>
+    <t>Mr0011</t>
+  </si>
+  <si>
+    <t>Mr0012</t>
+  </si>
+  <si>
+    <t>Mr0013</t>
+  </si>
+  <si>
+    <t>Mr0014</t>
+  </si>
+  <si>
+    <t>Mr0015</t>
+  </si>
+  <si>
+    <t>Mr0016</t>
+  </si>
+  <si>
+    <t>Mr0017</t>
+  </si>
+  <si>
+    <t>Mr0018</t>
+  </si>
+  <si>
+    <t>Mr0019</t>
+  </si>
+  <si>
+    <t>Mr0020</t>
+  </si>
+  <si>
+    <t>Mr0021</t>
+  </si>
+  <si>
+    <t>Mr0022</t>
+  </si>
+  <si>
+    <t>Mr0023</t>
+  </si>
+  <si>
+    <t>Mr0024</t>
+  </si>
+  <si>
+    <t>Mr0025</t>
+  </si>
+  <si>
+    <t>Mr0026</t>
+  </si>
+  <si>
+    <t>Mr0027</t>
+  </si>
+  <si>
+    <t>Mr0028</t>
+  </si>
+  <si>
+    <t>Mr0029</t>
+  </si>
+  <si>
+    <t>Mr0030</t>
+  </si>
+  <si>
+    <t>Mr0031</t>
+  </si>
+  <si>
+    <t>Mr0032</t>
+  </si>
+  <si>
+    <t>Mr0033</t>
+  </si>
+  <si>
+    <t>Mr0034</t>
+  </si>
+  <si>
+    <t>Mr0035</t>
+  </si>
+  <si>
+    <t>Mr0036</t>
+  </si>
+  <si>
+    <t>Mr0037</t>
+  </si>
+  <si>
+    <t>Mr0038</t>
+  </si>
+  <si>
+    <t>Mr0039</t>
+  </si>
+  <si>
+    <t>Mr0040</t>
+  </si>
+  <si>
+    <t>Mr0041</t>
+  </si>
+  <si>
+    <t>Mr0042</t>
+  </si>
+  <si>
+    <t>Mr0043</t>
+  </si>
+  <si>
+    <t>Mr0044</t>
+  </si>
+  <si>
+    <t>Mr0045</t>
+  </si>
+  <si>
+    <t>Mr0046</t>
+  </si>
+  <si>
+    <t>Mr0047</t>
+  </si>
+  <si>
+    <t>Mr0048</t>
+  </si>
+  <si>
+    <t>Mr0049</t>
+  </si>
+  <si>
+    <t>Mr0050</t>
+  </si>
+  <si>
+    <t>Mr0051</t>
+  </si>
+  <si>
+    <t>Mr0052</t>
+  </si>
+  <si>
+    <t>Mr0053</t>
+  </si>
+  <si>
+    <t>Mr0054</t>
+  </si>
+  <si>
+    <t>Mr0055</t>
+  </si>
+  <si>
+    <t>Mr0056</t>
+  </si>
+  <si>
+    <t>Mr0057</t>
+  </si>
+  <si>
+    <t>Mr0058</t>
+  </si>
+  <si>
+    <t>Mr0059</t>
+  </si>
+  <si>
+    <t>Mr0060</t>
+  </si>
+  <si>
+    <t>Mr0061</t>
+  </si>
+  <si>
+    <t>Mr0062</t>
+  </si>
+  <si>
+    <t>Mr0063</t>
+  </si>
+  <si>
+    <t>Mr0064</t>
+  </si>
+  <si>
+    <t>Mr0065</t>
+  </si>
+  <si>
+    <t>Mr0066</t>
+  </si>
+  <si>
+    <t>Mr0067</t>
+  </si>
+  <si>
+    <t>Mr0068</t>
+  </si>
+  <si>
+    <t>Mr0069</t>
+  </si>
+  <si>
+    <t>Mr0070</t>
+  </si>
+  <si>
+    <t>Mr0071</t>
+  </si>
+  <si>
+    <t>Mr0072</t>
+  </si>
+  <si>
+    <t>Mr0073</t>
+  </si>
+  <si>
+    <t>Mr0074</t>
+  </si>
+  <si>
+    <t>Mr0075</t>
+  </si>
+  <si>
+    <t>Mr0076</t>
+  </si>
+  <si>
+    <t>Mr0077</t>
+  </si>
+  <si>
+    <t>Mr0078</t>
+  </si>
+  <si>
+    <t>Mr0079</t>
+  </si>
+  <si>
+    <t>Mr0080</t>
+  </si>
+  <si>
+    <t>Mr0081</t>
+  </si>
+  <si>
+    <t>Mr0082</t>
+  </si>
+  <si>
+    <t>Mr0083</t>
+  </si>
+  <si>
+    <t>Mr0084</t>
+  </si>
+  <si>
+    <t>Mr0085</t>
+  </si>
+  <si>
+    <t>Mr0086</t>
+  </si>
+  <si>
+    <t>Mr0087</t>
+  </si>
+  <si>
+    <t>Mr0088</t>
+  </si>
+  <si>
+    <t>Mr0089</t>
+  </si>
+  <si>
+    <t>Mr0090</t>
+  </si>
+  <si>
+    <t>Mr0091</t>
+  </si>
+  <si>
+    <t>Mr0092</t>
+  </si>
+  <si>
+    <t>Mr0093</t>
+  </si>
+  <si>
+    <t>Mr0094</t>
+  </si>
+  <si>
+    <t>Mr0095</t>
+  </si>
+  <si>
+    <t>Mr0096</t>
+  </si>
+  <si>
+    <t>Mr0097</t>
+  </si>
+  <si>
+    <t>Mr0098</t>
+  </si>
+  <si>
+    <t>Mr0099</t>
   </si>
 </sst>
 </file>
@@ -564,11 +804,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,10 +833,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -607,7 +847,7 @@
         <v>36</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -618,7 +858,7 @@
         <v>37</v>
       </c>
       <c r="P4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -629,7 +869,7 @@
         <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -640,7 +880,7 @@
         <v>39</v>
       </c>
       <c r="P6" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -651,7 +891,7 @@
         <v>40</v>
       </c>
       <c r="P7" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -662,7 +902,7 @@
         <v>41</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -673,7 +913,7 @@
         <v>42</v>
       </c>
       <c r="P9" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -684,7 +924,7 @@
         <v>43</v>
       </c>
       <c r="P10" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -695,7 +935,7 @@
         <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -706,7 +946,7 @@
         <v>45</v>
       </c>
       <c r="P12" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -717,7 +957,7 @@
         <v>46</v>
       </c>
       <c r="P13" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -728,7 +968,7 @@
         <v>47</v>
       </c>
       <c r="P14" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -739,7 +979,7 @@
         <v>48</v>
       </c>
       <c r="P15" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -750,7 +990,7 @@
         <v>49</v>
       </c>
       <c r="P16" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -761,7 +1001,7 @@
         <v>50</v>
       </c>
       <c r="P17" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -772,7 +1012,7 @@
         <v>51</v>
       </c>
       <c r="P18" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -783,7 +1023,7 @@
         <v>52</v>
       </c>
       <c r="P19" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -794,7 +1034,887 @@
         <v>53</v>
       </c>
       <c r="P20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="P57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="P65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="P66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="P67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="P69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="P72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="P77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="P78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="P80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="P81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="P82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="P83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="P84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="P86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="P87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="P88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="P91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="P92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="P94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="P95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="P96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="P97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="P99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="P100" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/UCProject/src/data/BuildExcel.xlsx
+++ b/UCProject/src/data/BuildExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8655" uniqueCount="234">
   <si>
     <t>STT</t>
   </si>
@@ -119,304 +119,604 @@
     <t>Process</t>
   </si>
   <si>
+    <t>Mr@0001</t>
+  </si>
+  <si>
+    <t>Mr@0003</t>
+  </si>
+  <si>
+    <t>Mr@0004</t>
+  </si>
+  <si>
+    <t>Mr@0005</t>
+  </si>
+  <si>
+    <t>Mr@0006</t>
+  </si>
+  <si>
+    <t>Mr@0007</t>
+  </si>
+  <si>
+    <t>Mr@0008</t>
+  </si>
+  <si>
+    <t>Mr@0009</t>
+  </si>
+  <si>
+    <t>Mr@0002</t>
+  </si>
+  <si>
+    <t>Mr@0010</t>
+  </si>
+  <si>
+    <t>Mr@0011</t>
+  </si>
+  <si>
+    <t>Mr@0012</t>
+  </si>
+  <si>
+    <t>Mr@0013</t>
+  </si>
+  <si>
+    <t>Mr@0014</t>
+  </si>
+  <si>
+    <t>Mr@0015</t>
+  </si>
+  <si>
+    <t>Mr@0016</t>
+  </si>
+  <si>
+    <t>Mr@0017</t>
+  </si>
+  <si>
+    <t>Mr@0018</t>
+  </si>
+  <si>
+    <t>Mr@0019</t>
+  </si>
+  <si>
+    <t>Mr@0020</t>
+  </si>
+  <si>
+    <t>Mr@0021</t>
+  </si>
+  <si>
+    <t>Mr@0022</t>
+  </si>
+  <si>
+    <t>Mr@0023</t>
+  </si>
+  <si>
+    <t>Mr@0024</t>
+  </si>
+  <si>
+    <t>Mr@0025</t>
+  </si>
+  <si>
+    <t>Mr@0026</t>
+  </si>
+  <si>
+    <t>Mr@0027</t>
+  </si>
+  <si>
+    <t>Mr@0028</t>
+  </si>
+  <si>
+    <t>Mr@0029</t>
+  </si>
+  <si>
+    <t>Mr@0030</t>
+  </si>
+  <si>
+    <t>Mr@0031</t>
+  </si>
+  <si>
+    <t>Mr@0032</t>
+  </si>
+  <si>
+    <t>Mr@0033</t>
+  </si>
+  <si>
+    <t>Mr@0034</t>
+  </si>
+  <si>
+    <t>Mr@0035</t>
+  </si>
+  <si>
+    <t>Mr@0036</t>
+  </si>
+  <si>
+    <t>Mr@0037</t>
+  </si>
+  <si>
+    <t>Mr@0038</t>
+  </si>
+  <si>
+    <t>Mr@0039</t>
+  </si>
+  <si>
+    <t>Mr@0040</t>
+  </si>
+  <si>
+    <t>Mr@0041</t>
+  </si>
+  <si>
+    <t>Mr@0042</t>
+  </si>
+  <si>
+    <t>Mr@0043</t>
+  </si>
+  <si>
+    <t>Mr@0044</t>
+  </si>
+  <si>
+    <t>Mr@0045</t>
+  </si>
+  <si>
+    <t>Mr@0046</t>
+  </si>
+  <si>
+    <t>Mr@0047</t>
+  </si>
+  <si>
+    <t>Mr@0048</t>
+  </si>
+  <si>
+    <t>Mr@0049</t>
+  </si>
+  <si>
+    <t>Mr@0050</t>
+  </si>
+  <si>
+    <t>Mr@0051</t>
+  </si>
+  <si>
+    <t>Mr@0052</t>
+  </si>
+  <si>
+    <t>Mr@0053</t>
+  </si>
+  <si>
+    <t>Mr@0054</t>
+  </si>
+  <si>
+    <t>Mr@0055</t>
+  </si>
+  <si>
+    <t>Mr@0056</t>
+  </si>
+  <si>
+    <t>Mr@0057</t>
+  </si>
+  <si>
+    <t>Mr@0058</t>
+  </si>
+  <si>
+    <t>Mr@0059</t>
+  </si>
+  <si>
+    <t>Mr@0060</t>
+  </si>
+  <si>
+    <t>Mr@0061</t>
+  </si>
+  <si>
+    <t>Mr@0062</t>
+  </si>
+  <si>
+    <t>Mr@0063</t>
+  </si>
+  <si>
+    <t>Mr@0064</t>
+  </si>
+  <si>
+    <t>Mr@0065</t>
+  </si>
+  <si>
+    <t>Mr@0066</t>
+  </si>
+  <si>
+    <t>Mr@0067</t>
+  </si>
+  <si>
+    <t>Mr@0068</t>
+  </si>
+  <si>
+    <t>Mr@0069</t>
+  </si>
+  <si>
+    <t>Mr@0070</t>
+  </si>
+  <si>
+    <t>Mr@0071</t>
+  </si>
+  <si>
+    <t>Mr@0072</t>
+  </si>
+  <si>
+    <t>Mr@0073</t>
+  </si>
+  <si>
+    <t>Mr@0074</t>
+  </si>
+  <si>
+    <t>Mr@0075</t>
+  </si>
+  <si>
+    <t>Mr@0076</t>
+  </si>
+  <si>
+    <t>Mr@0077</t>
+  </si>
+  <si>
+    <t>Mr@0078</t>
+  </si>
+  <si>
+    <t>Mr@0079</t>
+  </si>
+  <si>
+    <t>Mr@0080</t>
+  </si>
+  <si>
+    <t>Mr@0081</t>
+  </si>
+  <si>
+    <t>Mr@0082</t>
+  </si>
+  <si>
+    <t>Mr@0083</t>
+  </si>
+  <si>
+    <t>Mr@0084</t>
+  </si>
+  <si>
+    <t>Mr@0085</t>
+  </si>
+  <si>
+    <t>Mr@0086</t>
+  </si>
+  <si>
+    <t>Mr@0087</t>
+  </si>
+  <si>
+    <t>Mr@0088</t>
+  </si>
+  <si>
+    <t>Mr@0089</t>
+  </si>
+  <si>
+    <t>Mr@0090</t>
+  </si>
+  <si>
+    <t>Mr@0091</t>
+  </si>
+  <si>
+    <t>Mr@0092</t>
+  </si>
+  <si>
+    <t>Mr@0093</t>
+  </si>
+  <si>
+    <t>Mr@0094</t>
+  </si>
+  <si>
+    <t>Mr@0095</t>
+  </si>
+  <si>
+    <t>Mr@0096</t>
+  </si>
+  <si>
+    <t>Mr@0097</t>
+  </si>
+  <si>
+    <t>Mr@0098</t>
+  </si>
+  <si>
+    <t>Mr@0099</t>
+  </si>
+  <si>
+    <t>Mr@0100</t>
+  </si>
+  <si>
+    <t>Mr@0101</t>
+  </si>
+  <si>
+    <t>Mr@0102</t>
+  </si>
+  <si>
+    <t>Mr@0103</t>
+  </si>
+  <si>
+    <t>Mr@0104</t>
+  </si>
+  <si>
+    <t>Mr@0105</t>
+  </si>
+  <si>
+    <t>Mr@0106</t>
+  </si>
+  <si>
+    <t>Mr@0107</t>
+  </si>
+  <si>
+    <t>Mr@0108</t>
+  </si>
+  <si>
+    <t>Mr@0109</t>
+  </si>
+  <si>
+    <t>Mr@0110</t>
+  </si>
+  <si>
+    <t>Mr@0111</t>
+  </si>
+  <si>
+    <t>Mr@0112</t>
+  </si>
+  <si>
+    <t>Mr@0113</t>
+  </si>
+  <si>
+    <t>Mr@0114</t>
+  </si>
+  <si>
+    <t>Mr@0115</t>
+  </si>
+  <si>
+    <t>Mr@0116</t>
+  </si>
+  <si>
+    <t>Mr@0117</t>
+  </si>
+  <si>
+    <t>Mr@0118</t>
+  </si>
+  <si>
+    <t>Mr@0119</t>
+  </si>
+  <si>
+    <t>Mr@0120</t>
+  </si>
+  <si>
+    <t>Mr@0121</t>
+  </si>
+  <si>
+    <t>Mr@0122</t>
+  </si>
+  <si>
+    <t>Mr@0123</t>
+  </si>
+  <si>
+    <t>Mr@0124</t>
+  </si>
+  <si>
+    <t>Mr@0125</t>
+  </si>
+  <si>
+    <t>Mr@0126</t>
+  </si>
+  <si>
+    <t>Mr@0127</t>
+  </si>
+  <si>
+    <t>Mr@0128</t>
+  </si>
+  <si>
+    <t>Mr@0129</t>
+  </si>
+  <si>
+    <t>Mr@0130</t>
+  </si>
+  <si>
+    <t>Mr@0131</t>
+  </si>
+  <si>
+    <t>Mr@0132</t>
+  </si>
+  <si>
+    <t>Mr@0133</t>
+  </si>
+  <si>
+    <t>Mr@0134</t>
+  </si>
+  <si>
+    <t>Mr@0135</t>
+  </si>
+  <si>
+    <t>Mr@0136</t>
+  </si>
+  <si>
+    <t>Mr@0137</t>
+  </si>
+  <si>
+    <t>Mr@0138</t>
+  </si>
+  <si>
+    <t>Mr@0139</t>
+  </si>
+  <si>
+    <t>Mr@0140</t>
+  </si>
+  <si>
+    <t>Mr@0141</t>
+  </si>
+  <si>
+    <t>Mr@0142</t>
+  </si>
+  <si>
+    <t>Mr@0143</t>
+  </si>
+  <si>
+    <t>Mr@0144</t>
+  </si>
+  <si>
+    <t>Mr@0145</t>
+  </si>
+  <si>
+    <t>Mr@0146</t>
+  </si>
+  <si>
+    <t>Mr@0147</t>
+  </si>
+  <si>
+    <t>Mr@0148</t>
+  </si>
+  <si>
+    <t>Mr@0149</t>
+  </si>
+  <si>
+    <t>Mr@0150</t>
+  </si>
+  <si>
+    <t>Mr@0151</t>
+  </si>
+  <si>
+    <t>Mr@0152</t>
+  </si>
+  <si>
+    <t>Mr@0153</t>
+  </si>
+  <si>
+    <t>Mr@0154</t>
+  </si>
+  <si>
+    <t>Mr@0155</t>
+  </si>
+  <si>
+    <t>Mr@0156</t>
+  </si>
+  <si>
+    <t>Mr@0157</t>
+  </si>
+  <si>
+    <t>Mr@0158</t>
+  </si>
+  <si>
+    <t>Mr@0159</t>
+  </si>
+  <si>
+    <t>Mr@0160</t>
+  </si>
+  <si>
+    <t>Mr@0161</t>
+  </si>
+  <si>
+    <t>Mr@0162</t>
+  </si>
+  <si>
+    <t>Mr@0163</t>
+  </si>
+  <si>
+    <t>Mr@0164</t>
+  </si>
+  <si>
+    <t>Mr@0165</t>
+  </si>
+  <si>
+    <t>Mr@0166</t>
+  </si>
+  <si>
+    <t>Mr@0167</t>
+  </si>
+  <si>
+    <t>Mr@0168</t>
+  </si>
+  <si>
+    <t>Mr@0169</t>
+  </si>
+  <si>
+    <t>Mr@0170</t>
+  </si>
+  <si>
+    <t>Mr@0171</t>
+  </si>
+  <si>
+    <t>Mr@0172</t>
+  </si>
+  <si>
+    <t>Mr@0173</t>
+  </si>
+  <si>
+    <t>Mr@0174</t>
+  </si>
+  <si>
+    <t>Mr@0175</t>
+  </si>
+  <si>
+    <t>Mr@0176</t>
+  </si>
+  <si>
+    <t>Mr@0177</t>
+  </si>
+  <si>
+    <t>Mr@0178</t>
+  </si>
+  <si>
+    <t>Mr@0179</t>
+  </si>
+  <si>
+    <t>Mr@0180</t>
+  </si>
+  <si>
+    <t>Mr@0181</t>
+  </si>
+  <si>
+    <t>Mr@0182</t>
+  </si>
+  <si>
+    <t>Mr@0183</t>
+  </si>
+  <si>
+    <t>Mr@0184</t>
+  </si>
+  <si>
+    <t>Mr@0185</t>
+  </si>
+  <si>
+    <t>Mr@0186</t>
+  </si>
+  <si>
+    <t>Mr@0187</t>
+  </si>
+  <si>
+    <t>Mr@0188</t>
+  </si>
+  <si>
+    <t>Mr@0189</t>
+  </si>
+  <si>
+    <t>Mr@0190</t>
+  </si>
+  <si>
+    <t>Mr@0191</t>
+  </si>
+  <si>
+    <t>Mr@0192</t>
+  </si>
+  <si>
+    <t>Mr@0193</t>
+  </si>
+  <si>
+    <t>Mr@0194</t>
+  </si>
+  <si>
+    <t>Mr@0195</t>
+  </si>
+  <si>
+    <t>Mr@0196</t>
+  </si>
+  <si>
+    <t>Mr@0197</t>
+  </si>
+  <si>
+    <t>Mr@0198</t>
+  </si>
+  <si>
+    <t>Mr@0199</t>
+  </si>
+  <si>
     <t>PASSED</t>
-  </si>
-  <si>
-    <t>Mr0001</t>
-  </si>
-  <si>
-    <t>Mr0002</t>
-  </si>
-  <si>
-    <t>Mr0003</t>
-  </si>
-  <si>
-    <t>Mr0004</t>
-  </si>
-  <si>
-    <t>Mr0005</t>
-  </si>
-  <si>
-    <t>Mr0006</t>
-  </si>
-  <si>
-    <t>Mr0007</t>
-  </si>
-  <si>
-    <t>Mr0008</t>
-  </si>
-  <si>
-    <t>Mr0009</t>
-  </si>
-  <si>
-    <t>Mr0010</t>
-  </si>
-  <si>
-    <t>Mr0011</t>
-  </si>
-  <si>
-    <t>Mr0012</t>
-  </si>
-  <si>
-    <t>Mr0013</t>
-  </si>
-  <si>
-    <t>Mr0014</t>
-  </si>
-  <si>
-    <t>Mr0015</t>
-  </si>
-  <si>
-    <t>Mr0016</t>
-  </si>
-  <si>
-    <t>Mr0017</t>
-  </si>
-  <si>
-    <t>Mr0018</t>
-  </si>
-  <si>
-    <t>Mr0019</t>
-  </si>
-  <si>
-    <t>Mr0020</t>
-  </si>
-  <si>
-    <t>Mr0021</t>
-  </si>
-  <si>
-    <t>Mr0022</t>
-  </si>
-  <si>
-    <t>Mr0023</t>
-  </si>
-  <si>
-    <t>Mr0024</t>
-  </si>
-  <si>
-    <t>Mr0025</t>
-  </si>
-  <si>
-    <t>Mr0026</t>
-  </si>
-  <si>
-    <t>Mr0027</t>
-  </si>
-  <si>
-    <t>Mr0028</t>
-  </si>
-  <si>
-    <t>Mr0029</t>
-  </si>
-  <si>
-    <t>Mr0030</t>
-  </si>
-  <si>
-    <t>Mr0031</t>
-  </si>
-  <si>
-    <t>Mr0032</t>
-  </si>
-  <si>
-    <t>Mr0033</t>
-  </si>
-  <si>
-    <t>Mr0034</t>
-  </si>
-  <si>
-    <t>Mr0035</t>
-  </si>
-  <si>
-    <t>Mr0036</t>
-  </si>
-  <si>
-    <t>Mr0037</t>
-  </si>
-  <si>
-    <t>Mr0038</t>
-  </si>
-  <si>
-    <t>Mr0039</t>
-  </si>
-  <si>
-    <t>Mr0040</t>
-  </si>
-  <si>
-    <t>Mr0041</t>
-  </si>
-  <si>
-    <t>Mr0042</t>
-  </si>
-  <si>
-    <t>Mr0043</t>
-  </si>
-  <si>
-    <t>Mr0044</t>
-  </si>
-  <si>
-    <t>Mr0045</t>
-  </si>
-  <si>
-    <t>Mr0046</t>
-  </si>
-  <si>
-    <t>Mr0047</t>
-  </si>
-  <si>
-    <t>Mr0048</t>
-  </si>
-  <si>
-    <t>Mr0049</t>
-  </si>
-  <si>
-    <t>Mr0050</t>
-  </si>
-  <si>
-    <t>Mr0051</t>
-  </si>
-  <si>
-    <t>Mr0052</t>
-  </si>
-  <si>
-    <t>Mr0053</t>
-  </si>
-  <si>
-    <t>Mr0054</t>
-  </si>
-  <si>
-    <t>Mr0055</t>
-  </si>
-  <si>
-    <t>Mr0056</t>
-  </si>
-  <si>
-    <t>Mr0057</t>
-  </si>
-  <si>
-    <t>Mr0058</t>
-  </si>
-  <si>
-    <t>Mr0059</t>
-  </si>
-  <si>
-    <t>Mr0060</t>
-  </si>
-  <si>
-    <t>Mr0061</t>
-  </si>
-  <si>
-    <t>Mr0062</t>
-  </si>
-  <si>
-    <t>Mr0063</t>
-  </si>
-  <si>
-    <t>Mr0064</t>
-  </si>
-  <si>
-    <t>Mr0065</t>
-  </si>
-  <si>
-    <t>Mr0066</t>
-  </si>
-  <si>
-    <t>Mr0067</t>
-  </si>
-  <si>
-    <t>Mr0068</t>
-  </si>
-  <si>
-    <t>Mr0069</t>
-  </si>
-  <si>
-    <t>Mr0070</t>
-  </si>
-  <si>
-    <t>Mr0071</t>
-  </si>
-  <si>
-    <t>Mr0072</t>
-  </si>
-  <si>
-    <t>Mr0073</t>
-  </si>
-  <si>
-    <t>Mr0074</t>
-  </si>
-  <si>
-    <t>Mr0075</t>
-  </si>
-  <si>
-    <t>Mr0076</t>
-  </si>
-  <si>
-    <t>Mr0077</t>
-  </si>
-  <si>
-    <t>Mr0078</t>
-  </si>
-  <si>
-    <t>Mr0079</t>
-  </si>
-  <si>
-    <t>Mr0080</t>
-  </si>
-  <si>
-    <t>Mr0081</t>
-  </si>
-  <si>
-    <t>Mr0082</t>
-  </si>
-  <si>
-    <t>Mr0083</t>
-  </si>
-  <si>
-    <t>Mr0084</t>
-  </si>
-  <si>
-    <t>Mr0085</t>
-  </si>
-  <si>
-    <t>Mr0086</t>
-  </si>
-  <si>
-    <t>Mr0087</t>
-  </si>
-  <si>
-    <t>Mr0088</t>
-  </si>
-  <si>
-    <t>Mr0089</t>
-  </si>
-  <si>
-    <t>Mr0090</t>
-  </si>
-  <si>
-    <t>Mr0091</t>
-  </si>
-  <si>
-    <t>Mr0092</t>
-  </si>
-  <si>
-    <t>Mr0093</t>
-  </si>
-  <si>
-    <t>Mr0094</t>
-  </si>
-  <si>
-    <t>Mr0095</t>
-  </si>
-  <si>
-    <t>Mr0096</t>
-  </si>
-  <si>
-    <t>Mr0097</t>
-  </si>
-  <si>
-    <t>Mr0098</t>
-  </si>
-  <si>
-    <t>Mr0099</t>
   </si>
 </sst>
 </file>
@@ -804,11 +1104,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P100"/>
+  <dimension ref="A1:P200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I85" sqref="I85"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D186" sqref="D186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,10 +1133,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -844,10 +1144,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -855,10 +1155,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P4" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -866,10 +1166,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P5" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -877,10 +1177,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P6" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -888,10 +1188,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P7" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -899,10 +1199,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -910,10 +1210,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -921,10 +1221,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P10" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -932,10 +1232,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -943,10 +1243,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -954,10 +1254,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P13" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -965,10 +1265,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P14" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -976,10 +1276,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P15" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -987,10 +1287,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P16" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -998,10 +1298,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P17" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1009,10 +1309,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P18" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1020,10 +1320,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P19" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1031,10 +1331,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P20" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1042,10 +1342,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1053,10 +1353,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1064,10 +1364,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P23" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1075,10 +1375,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P24" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1086,10 +1386,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P25" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1097,10 +1397,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P26" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1108,10 +1408,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1119,10 +1419,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P28" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1130,10 +1430,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P29" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1141,10 +1441,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P30" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1152,10 +1452,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P31" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1163,10 +1463,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P32" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1174,10 +1474,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P33" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1185,10 +1485,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P34" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1196,10 +1496,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P35" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1207,10 +1507,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P36" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1218,10 +1518,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P37" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1229,10 +1529,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P38" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1240,10 +1540,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P39" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1251,10 +1551,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P40" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1262,10 +1562,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P41" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1273,10 +1573,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P42" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1284,10 +1584,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P43" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1295,10 +1595,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P44" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1306,10 +1606,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P45" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1317,10 +1617,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P46" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1328,10 +1628,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P47" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1339,10 +1639,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P48" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1350,10 +1650,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P49" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1361,10 +1661,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P50" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1372,10 +1672,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P51" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1383,10 +1683,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1394,10 +1694,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P53" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1405,10 +1705,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1416,10 +1716,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P55" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1427,10 +1727,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1438,10 +1738,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1449,10 +1749,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P58" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1460,10 +1760,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P59" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1471,10 +1771,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P60" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1482,10 +1782,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P61" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1493,10 +1793,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P62" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1504,10 +1804,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P63" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1515,10 +1815,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P64" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1526,10 +1826,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P65" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1537,10 +1837,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P66" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1548,10 +1848,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P67" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1559,10 +1859,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1570,10 +1870,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P69" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1581,10 +1881,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P70" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1592,10 +1892,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P71" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1603,10 +1903,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P72" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1614,10 +1914,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P73" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1625,10 +1925,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P74" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1636,10 +1936,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1647,10 +1947,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P76" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1658,10 +1958,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P77" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1669,10 +1969,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P78" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1680,10 +1980,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P79" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1691,10 +1991,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P80" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1702,10 +2002,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P81" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1713,10 +2013,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P82" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1724,10 +2024,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P83" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1735,10 +2035,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P84" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1746,10 +2046,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P85" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,10 +2057,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P86" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1768,10 +2068,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P87" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1779,10 +2079,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P88" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1790,10 +2090,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P89" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1801,10 +2101,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1812,10 +2112,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P91" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1823,10 +2123,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P92" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1834,10 +2134,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P93" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1845,10 +2145,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P94" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1856,10 +2156,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P95" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1867,10 +2167,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P96" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1878,10 +2178,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P97" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1889,10 +2189,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P98" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1900,10 +2200,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P99" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1911,10 +2211,1110 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="P100" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="P100" t="s">
-        <v>4</v>
+      <c r="P101" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P102" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="P103" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="P104" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="P105" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P106" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P107" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P108" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="P109" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="P110" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="P111" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P112" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="P113" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P114" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="P115" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="P116" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="P117" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="P118" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="P119" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P120" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="P121" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="P122" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="P123" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P124" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P125" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="P126" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P127" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="P128" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="P129" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P130" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P131" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="P132" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="P133" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="P134" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="P135" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P136" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="P137" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="P138" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="P139" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="P140" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="P141" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="P142" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="P143" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P144" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="P145" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="P146" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="P147" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="P148" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="P149" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="P150" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="P151" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="P152" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P153" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="P154" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="P155" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="P156" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="P157" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="P158" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="P159" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P160" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="P161" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="P162" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P163" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P164" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="P165" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="P166" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="P167" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="P168" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="P169" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P170" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="P171" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="P172" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="P173" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="P174" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="P175" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="P176" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="P177" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="P178" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="P179" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="P180" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="P181" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="P182" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P183" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="P184" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="P185" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P186" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="P187" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="P188" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="P189" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P190" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="P191" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="P192" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="P193" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="P194" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P195" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="P196" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P197" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="P198" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="P199" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="P200" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/UCProject/src/data/BuildExcel.xlsx
+++ b/UCProject/src/data/BuildExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8655" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8854" uniqueCount="234">
   <si>
     <t>STT</t>
   </si>
@@ -1136,7 +1136,7 @@
         <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1147,7 +1147,7 @@
         <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1158,7 +1158,7 @@
         <v>35</v>
       </c>
       <c r="P4" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1169,7 +1169,7 @@
         <v>36</v>
       </c>
       <c r="P5" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1180,7 +1180,7 @@
         <v>37</v>
       </c>
       <c r="P6" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1191,7 +1191,7 @@
         <v>38</v>
       </c>
       <c r="P7" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1202,7 +1202,7 @@
         <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1213,7 +1213,7 @@
         <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1224,7 +1224,7 @@
         <v>41</v>
       </c>
       <c r="P10" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
         <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1246,7 +1246,7 @@
         <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1257,7 +1257,7 @@
         <v>45</v>
       </c>
       <c r="P13" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1268,7 +1268,7 @@
         <v>46</v>
       </c>
       <c r="P14" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1279,7 +1279,7 @@
         <v>47</v>
       </c>
       <c r="P15" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1290,7 +1290,7 @@
         <v>48</v>
       </c>
       <c r="P16" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1301,7 +1301,7 @@
         <v>49</v>
       </c>
       <c r="P17" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1312,7 +1312,7 @@
         <v>50</v>
       </c>
       <c r="P18" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1323,7 +1323,7 @@
         <v>51</v>
       </c>
       <c r="P19" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1334,7 +1334,7 @@
         <v>52</v>
       </c>
       <c r="P20" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1345,7 +1345,7 @@
         <v>53</v>
       </c>
       <c r="P21" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1356,7 +1356,7 @@
         <v>54</v>
       </c>
       <c r="P22" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1367,7 +1367,7 @@
         <v>55</v>
       </c>
       <c r="P23" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
         <v>56</v>
       </c>
       <c r="P24" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1389,7 +1389,7 @@
         <v>57</v>
       </c>
       <c r="P25" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1400,7 +1400,7 @@
         <v>58</v>
       </c>
       <c r="P26" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1411,7 +1411,7 @@
         <v>59</v>
       </c>
       <c r="P27" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1422,7 +1422,7 @@
         <v>60</v>
       </c>
       <c r="P28" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1433,7 +1433,7 @@
         <v>61</v>
       </c>
       <c r="P29" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1444,7 +1444,7 @@
         <v>62</v>
       </c>
       <c r="P30" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>63</v>
       </c>
       <c r="P31" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1466,7 +1466,7 @@
         <v>64</v>
       </c>
       <c r="P32" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
         <v>65</v>
       </c>
       <c r="P33" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1488,7 +1488,7 @@
         <v>66</v>
       </c>
       <c r="P34" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1499,7 +1499,7 @@
         <v>67</v>
       </c>
       <c r="P35" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1510,7 +1510,7 @@
         <v>68</v>
       </c>
       <c r="P36" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1521,7 +1521,7 @@
         <v>69</v>
       </c>
       <c r="P37" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1532,7 +1532,7 @@
         <v>70</v>
       </c>
       <c r="P38" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1543,7 +1543,7 @@
         <v>71</v>
       </c>
       <c r="P39" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1554,7 +1554,7 @@
         <v>72</v>
       </c>
       <c r="P40" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1565,7 +1565,7 @@
         <v>73</v>
       </c>
       <c r="P41" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1576,7 +1576,7 @@
         <v>74</v>
       </c>
       <c r="P42" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1587,7 +1587,7 @@
         <v>75</v>
       </c>
       <c r="P43" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1598,7 +1598,7 @@
         <v>76</v>
       </c>
       <c r="P44" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1609,7 +1609,7 @@
         <v>77</v>
       </c>
       <c r="P45" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1620,7 +1620,7 @@
         <v>78</v>
       </c>
       <c r="P46" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1631,7 +1631,7 @@
         <v>79</v>
       </c>
       <c r="P47" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1642,7 +1642,7 @@
         <v>80</v>
       </c>
       <c r="P48" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
         <v>81</v>
       </c>
       <c r="P49" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1664,7 +1664,7 @@
         <v>82</v>
       </c>
       <c r="P50" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1675,7 +1675,7 @@
         <v>83</v>
       </c>
       <c r="P51" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1686,7 +1686,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1697,7 +1697,7 @@
         <v>85</v>
       </c>
       <c r="P53" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1708,7 +1708,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1719,7 +1719,7 @@
         <v>87</v>
       </c>
       <c r="P55" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1730,7 +1730,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1741,7 +1741,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1752,7 +1752,7 @@
         <v>90</v>
       </c>
       <c r="P58" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1763,7 +1763,7 @@
         <v>91</v>
       </c>
       <c r="P59" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1774,7 +1774,7 @@
         <v>92</v>
       </c>
       <c r="P60" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1785,7 +1785,7 @@
         <v>93</v>
       </c>
       <c r="P61" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1796,7 +1796,7 @@
         <v>94</v>
       </c>
       <c r="P62" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1807,7 +1807,7 @@
         <v>95</v>
       </c>
       <c r="P63" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1818,7 +1818,7 @@
         <v>96</v>
       </c>
       <c r="P64" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1829,7 +1829,7 @@
         <v>97</v>
       </c>
       <c r="P65" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1840,7 +1840,7 @@
         <v>98</v>
       </c>
       <c r="P66" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1851,7 +1851,7 @@
         <v>99</v>
       </c>
       <c r="P67" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1862,7 +1862,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1873,7 +1873,7 @@
         <v>101</v>
       </c>
       <c r="P69" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1884,7 +1884,7 @@
         <v>102</v>
       </c>
       <c r="P70" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1895,7 +1895,7 @@
         <v>103</v>
       </c>
       <c r="P71" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1906,7 +1906,7 @@
         <v>104</v>
       </c>
       <c r="P72" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1917,7 +1917,7 @@
         <v>105</v>
       </c>
       <c r="P73" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1928,7 +1928,7 @@
         <v>106</v>
       </c>
       <c r="P74" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1939,7 +1939,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1950,7 +1950,7 @@
         <v>108</v>
       </c>
       <c r="P76" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1961,7 +1961,7 @@
         <v>109</v>
       </c>
       <c r="P77" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1972,7 +1972,7 @@
         <v>110</v>
       </c>
       <c r="P78" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1983,7 +1983,7 @@
         <v>111</v>
       </c>
       <c r="P79" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1994,7 +1994,7 @@
         <v>112</v>
       </c>
       <c r="P80" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2005,7 +2005,7 @@
         <v>113</v>
       </c>
       <c r="P81" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2016,7 +2016,7 @@
         <v>114</v>
       </c>
       <c r="P82" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2027,7 +2027,7 @@
         <v>115</v>
       </c>
       <c r="P83" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2038,7 +2038,7 @@
         <v>116</v>
       </c>
       <c r="P84" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2049,7 +2049,7 @@
         <v>117</v>
       </c>
       <c r="P85" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2060,7 +2060,7 @@
         <v>118</v>
       </c>
       <c r="P86" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2071,7 +2071,7 @@
         <v>119</v>
       </c>
       <c r="P87" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2082,7 +2082,7 @@
         <v>120</v>
       </c>
       <c r="P88" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2093,7 +2093,7 @@
         <v>121</v>
       </c>
       <c r="P89" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2104,7 +2104,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2115,7 +2115,7 @@
         <v>123</v>
       </c>
       <c r="P91" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2126,7 +2126,7 @@
         <v>124</v>
       </c>
       <c r="P92" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2137,7 +2137,7 @@
         <v>125</v>
       </c>
       <c r="P93" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2148,7 +2148,7 @@
         <v>126</v>
       </c>
       <c r="P94" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2159,7 +2159,7 @@
         <v>127</v>
       </c>
       <c r="P95" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2170,7 +2170,7 @@
         <v>128</v>
       </c>
       <c r="P96" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2181,7 +2181,7 @@
         <v>129</v>
       </c>
       <c r="P97" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2192,7 +2192,7 @@
         <v>130</v>
       </c>
       <c r="P98" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2203,7 +2203,7 @@
         <v>131</v>
       </c>
       <c r="P99" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2214,7 +2214,7 @@
         <v>132</v>
       </c>
       <c r="P100" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2225,7 +2225,7 @@
         <v>133</v>
       </c>
       <c r="P101" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2236,7 +2236,7 @@
         <v>134</v>
       </c>
       <c r="P102" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2247,7 +2247,7 @@
         <v>135</v>
       </c>
       <c r="P103" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2258,7 +2258,7 @@
         <v>136</v>
       </c>
       <c r="P104" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2269,7 +2269,7 @@
         <v>137</v>
       </c>
       <c r="P105" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2280,7 +2280,7 @@
         <v>138</v>
       </c>
       <c r="P106" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2291,7 +2291,7 @@
         <v>139</v>
       </c>
       <c r="P107" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2302,7 +2302,7 @@
         <v>140</v>
       </c>
       <c r="P108" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2313,7 +2313,7 @@
         <v>141</v>
       </c>
       <c r="P109" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2324,7 +2324,7 @@
         <v>142</v>
       </c>
       <c r="P110" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2335,7 +2335,7 @@
         <v>143</v>
       </c>
       <c r="P111" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2346,7 +2346,7 @@
         <v>144</v>
       </c>
       <c r="P112" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2357,7 +2357,7 @@
         <v>145</v>
       </c>
       <c r="P113" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2368,7 +2368,7 @@
         <v>146</v>
       </c>
       <c r="P114" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2379,7 +2379,7 @@
         <v>147</v>
       </c>
       <c r="P115" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2390,7 +2390,7 @@
         <v>148</v>
       </c>
       <c r="P116" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2401,7 +2401,7 @@
         <v>149</v>
       </c>
       <c r="P117" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2412,7 +2412,7 @@
         <v>150</v>
       </c>
       <c r="P118" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2423,7 +2423,7 @@
         <v>151</v>
       </c>
       <c r="P119" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2434,7 +2434,7 @@
         <v>152</v>
       </c>
       <c r="P120" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2445,7 +2445,7 @@
         <v>153</v>
       </c>
       <c r="P121" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2456,7 +2456,7 @@
         <v>154</v>
       </c>
       <c r="P122" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2467,7 +2467,7 @@
         <v>155</v>
       </c>
       <c r="P123" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2478,7 +2478,7 @@
         <v>156</v>
       </c>
       <c r="P124" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2489,7 +2489,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2500,7 +2500,7 @@
         <v>158</v>
       </c>
       <c r="P126" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2511,7 +2511,7 @@
         <v>159</v>
       </c>
       <c r="P127" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2522,7 +2522,7 @@
         <v>160</v>
       </c>
       <c r="P128" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2533,7 +2533,7 @@
         <v>161</v>
       </c>
       <c r="P129" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2544,7 +2544,7 @@
         <v>162</v>
       </c>
       <c r="P130" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2555,7 +2555,7 @@
         <v>163</v>
       </c>
       <c r="P131" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2566,7 +2566,7 @@
         <v>164</v>
       </c>
       <c r="P132" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2577,7 +2577,7 @@
         <v>165</v>
       </c>
       <c r="P133" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2588,7 +2588,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2599,7 +2599,7 @@
         <v>167</v>
       </c>
       <c r="P135" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2610,7 +2610,7 @@
         <v>168</v>
       </c>
       <c r="P136" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2621,7 +2621,7 @@
         <v>169</v>
       </c>
       <c r="P137" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2632,7 +2632,7 @@
         <v>170</v>
       </c>
       <c r="P138" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2643,7 +2643,7 @@
         <v>171</v>
       </c>
       <c r="P139" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2654,7 +2654,7 @@
         <v>172</v>
       </c>
       <c r="P140" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -2665,7 +2665,7 @@
         <v>173</v>
       </c>
       <c r="P141" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2676,7 +2676,7 @@
         <v>174</v>
       </c>
       <c r="P142" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -2687,7 +2687,7 @@
         <v>175</v>
       </c>
       <c r="P143" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -2698,7 +2698,7 @@
         <v>176</v>
       </c>
       <c r="P144" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2709,7 +2709,7 @@
         <v>177</v>
       </c>
       <c r="P145" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2720,7 +2720,7 @@
         <v>178</v>
       </c>
       <c r="P146" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -2731,7 +2731,7 @@
         <v>179</v>
       </c>
       <c r="P147" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -2742,7 +2742,7 @@
         <v>180</v>
       </c>
       <c r="P148" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -2753,7 +2753,7 @@
         <v>181</v>
       </c>
       <c r="P149" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -2764,7 +2764,7 @@
         <v>182</v>
       </c>
       <c r="P150" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -2775,7 +2775,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -2786,7 +2786,7 @@
         <v>184</v>
       </c>
       <c r="P152" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -2797,7 +2797,7 @@
         <v>185</v>
       </c>
       <c r="P153" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -2808,7 +2808,7 @@
         <v>186</v>
       </c>
       <c r="P154" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -2819,7 +2819,7 @@
         <v>187</v>
       </c>
       <c r="P155" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -2841,7 +2841,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -2852,7 +2852,7 @@
         <v>190</v>
       </c>
       <c r="P158" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -2863,7 +2863,7 @@
         <v>191</v>
       </c>
       <c r="P159" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -2874,7 +2874,7 @@
         <v>192</v>
       </c>
       <c r="P160" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -2885,7 +2885,7 @@
         <v>193</v>
       </c>
       <c r="P161" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -2896,7 +2896,7 @@
         <v>194</v>
       </c>
       <c r="P162" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -2907,7 +2907,7 @@
         <v>195</v>
       </c>
       <c r="P163" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -2918,7 +2918,7 @@
         <v>196</v>
       </c>
       <c r="P164" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -2929,7 +2929,7 @@
         <v>197</v>
       </c>
       <c r="P165" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -2940,7 +2940,7 @@
         <v>198</v>
       </c>
       <c r="P166" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -2951,7 +2951,7 @@
         <v>199</v>
       </c>
       <c r="P167" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -2962,7 +2962,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -2973,7 +2973,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -2984,7 +2984,7 @@
         <v>202</v>
       </c>
       <c r="P170" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -2995,7 +2995,7 @@
         <v>203</v>
       </c>
       <c r="P171" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3006,7 +3006,7 @@
         <v>204</v>
       </c>
       <c r="P172" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3017,7 +3017,7 @@
         <v>205</v>
       </c>
       <c r="P173" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3028,7 +3028,7 @@
         <v>206</v>
       </c>
       <c r="P174" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3039,7 +3039,7 @@
         <v>207</v>
       </c>
       <c r="P175" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -3050,7 +3050,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,7 +3061,7 @@
         <v>209</v>
       </c>
       <c r="P177" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -3072,7 +3072,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3083,7 +3083,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3094,7 +3094,7 @@
         <v>212</v>
       </c>
       <c r="P180" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3105,7 +3105,7 @@
         <v>213</v>
       </c>
       <c r="P181" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -3116,7 +3116,7 @@
         <v>214</v>
       </c>
       <c r="P182" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -3127,7 +3127,7 @@
         <v>215</v>
       </c>
       <c r="P183" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -3138,7 +3138,7 @@
         <v>216</v>
       </c>
       <c r="P184" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3149,7 +3149,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -3160,7 +3160,7 @@
         <v>218</v>
       </c>
       <c r="P186" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -3171,7 +3171,7 @@
         <v>219</v>
       </c>
       <c r="P187" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3182,7 +3182,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3193,7 +3193,7 @@
         <v>221</v>
       </c>
       <c r="P189" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3204,7 +3204,7 @@
         <v>222</v>
       </c>
       <c r="P190" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3215,7 +3215,7 @@
         <v>223</v>
       </c>
       <c r="P191" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3226,7 +3226,7 @@
         <v>224</v>
       </c>
       <c r="P192" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -3237,7 +3237,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -3248,7 +3248,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3259,7 +3259,7 @@
         <v>227</v>
       </c>
       <c r="P195" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3270,7 +3270,7 @@
         <v>228</v>
       </c>
       <c r="P196" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3281,7 +3281,7 @@
         <v>229</v>
       </c>
       <c r="P197" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -3292,7 +3292,7 @@
         <v>230</v>
       </c>
       <c r="P198" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3303,7 +3303,7 @@
         <v>231</v>
       </c>
       <c r="P199" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3314,7 +3314,7 @@
         <v>232</v>
       </c>
       <c r="P200" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
